--- a/data/revenue/total_revenue.xlsx
+++ b/data/revenue/total_revenue.xlsx
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>-2967208478.617933</v>
       </c>
       <c r="D103" t="inlineStr"/>
     </row>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>-3418123470.066618</v>
       </c>
       <c r="D110" t="inlineStr"/>
     </row>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-3066251506.712702</v>
       </c>
       <c r="D123" t="inlineStr"/>
     </row>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>-3338813700.174971</v>
       </c>
       <c r="D150" t="inlineStr"/>
     </row>

--- a/data/revenue/total_revenue.xlsx
+++ b/data/revenue/total_revenue.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3074.940932146294</v>
+        <v>3459.039148912596</v>
       </c>
       <c r="D3" t="n">
-        <v>151.9735425858192</v>
+        <v>174.4971979922003</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5800.249747344745</v>
+        <v>6624.080334918201</v>
       </c>
       <c r="D4" t="n">
-        <v>411.0750845694674</v>
+        <v>417.8402476202729</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6946.074073377004</v>
+        <v>8809.214101573745</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76633524122674</v>
+        <v>502.6013837379472</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8934.301379246192</v>
+        <v>6207.885175487334</v>
       </c>
       <c r="D6" t="n">
-        <v>54.94297193079524</v>
+        <v>29.63019839944093</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3305.314855587533</v>
+        <v>4646.944543077418</v>
       </c>
       <c r="D7" t="n">
-        <v>124.8006552739542</v>
+        <v>299.7775784575481</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11627.91816730494</v>
+        <v>9520.008401501635</v>
       </c>
       <c r="D8" t="n">
-        <v>588.4762327252035</v>
+        <v>250.0215626692212</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9752.75936501481</v>
+        <v>8448.688220921871</v>
       </c>
       <c r="D9" t="n">
-        <v>85.85813611340501</v>
+        <v>124.3157138504505</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2703.740464783427</v>
+        <v>3546.461765177231</v>
       </c>
       <c r="D10" t="n">
-        <v>251.5060377858574</v>
+        <v>226.4827167309857</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9768.755213718181</v>
+        <v>8960.240511020451</v>
       </c>
       <c r="D11" t="n">
-        <v>422.6078274124891</v>
+        <v>448.1115261533535</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2859.011827785263</v>
+        <v>3661.300149560364</v>
       </c>
       <c r="D12" t="n">
-        <v>18.12498338620163</v>
+        <v>16.12582062038454</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2147.573774282546</v>
+        <v>2133.486618583383</v>
       </c>
       <c r="D13" t="n">
-        <v>15.57936856077911</v>
+        <v>12.0193420874278</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5297.157109711545</v>
+        <v>5397.056626295747</v>
       </c>
       <c r="D14" t="n">
-        <v>617.1845200071083</v>
+        <v>239.3786144687925</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3639.769891663508</v>
+        <v>3782.307087918168</v>
       </c>
       <c r="D15" t="n">
-        <v>1.931666216366984</v>
+        <v>6.997577665245847</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15220.58179337585</v>
+        <v>14314.47746676806</v>
       </c>
       <c r="D16" t="n">
-        <v>469.1445982379914</v>
+        <v>625.0250400330402</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10415.4163534417</v>
+        <v>12079.92250192237</v>
       </c>
       <c r="D17" t="n">
-        <v>53.73067300402258</v>
+        <v>49.73908124633026</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5498.493491861075</v>
+        <v>7140.67839498262</v>
       </c>
       <c r="D18" t="n">
-        <v>270.4950772321137</v>
+        <v>200.6587665495748</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7982.127936242354</v>
+        <v>5497.764485705557</v>
       </c>
       <c r="D19" t="n">
-        <v>18.46590681602314</v>
+        <v>23.49188598604879</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4674.414161833062</v>
+        <v>5038.918339524042</v>
       </c>
       <c r="D20" t="n">
-        <v>270.5531998995593</v>
+        <v>345.1563130118697</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2816.058165535225</v>
+        <v>3193.469263248304</v>
       </c>
       <c r="D21" t="n">
-        <v>166.9369495297483</v>
+        <v>121.0678881769322</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10994.31621282837</v>
+        <v>15278.14093947158</v>
       </c>
       <c r="D22" t="n">
-        <v>34.34525893828333</v>
+        <v>60.37397660143609</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3738.785846178956</v>
+        <v>3123.48769043201</v>
       </c>
       <c r="D23" t="n">
-        <v>89.18785868305184</v>
+        <v>89.61032960283262</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5589.931085366902</v>
+        <v>6593.172222070822</v>
       </c>
       <c r="D24" t="n">
-        <v>308.4586634021946</v>
+        <v>292.0936771628947</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2869.530650784664</v>
+        <v>2830.948214550826</v>
       </c>
       <c r="D25" t="n">
-        <v>118.8744290363015</v>
+        <v>183.2456538121466</v>
       </c>
     </row>
     <row r="26">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5290.473051944861</v>
+        <v>5384.075240441389</v>
       </c>
       <c r="D26" t="n">
-        <v>95.4031409994552</v>
+        <v>237.8550937089497</v>
       </c>
     </row>
     <row r="27">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9711.692326466753</v>
+        <v>7496.440597733875</v>
       </c>
       <c r="D27" t="n">
-        <v>32.93633648592993</v>
+        <v>45.03671675808876</v>
       </c>
     </row>
     <row r="28">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7814.360437371375</v>
+        <v>6324.004817445851</v>
       </c>
       <c r="D28" t="n">
-        <v>316.5556808386187</v>
+        <v>136.8013828726772</v>
       </c>
     </row>
     <row r="29">
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2234.376484624491</v>
+        <v>1732.930170175151</v>
       </c>
       <c r="D29" t="n">
-        <v>147.2712453903429</v>
+        <v>95.21676614888321</v>
       </c>
     </row>
     <row r="30">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4128.591499324939</v>
+        <v>4639.96398294305</v>
       </c>
       <c r="D30" t="n">
-        <v>26.4301576933712</v>
+        <v>24.52586073332256</v>
       </c>
     </row>
     <row r="31">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2965.174226082408</v>
+        <v>2521.268143396527</v>
       </c>
       <c r="D31" t="n">
-        <v>194.6196671831513</v>
+        <v>201.6766650352661</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6809.455207957534</v>
+        <v>9025.952658255082</v>
       </c>
       <c r="D32" t="n">
-        <v>457.7884182759736</v>
+        <v>368.5960039714619</v>
       </c>
     </row>
     <row r="33">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9613.166774521538</v>
+        <v>8718.305494790553</v>
       </c>
       <c r="D33" t="n">
-        <v>49.62279152794503</v>
+        <v>30.54650652325427</v>
       </c>
     </row>
     <row r="34">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5043.828847431495</v>
+        <v>5461.548914293287</v>
       </c>
       <c r="D34" t="n">
-        <v>157.3186803212029</v>
+        <v>333.1499283625006</v>
       </c>
     </row>
     <row r="35">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7408.91828972577</v>
+        <v>6445.182904150264</v>
       </c>
       <c r="D35" t="n">
-        <v>25.06225159189488</v>
+        <v>26.45068525034418</v>
       </c>
     </row>
     <row r="36">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4670.469689275034</v>
+        <v>5355.086551195563</v>
       </c>
       <c r="D36" t="n">
-        <v>36.70084244551733</v>
+        <v>23.89423015862022</v>
       </c>
     </row>
     <row r="37">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6134.109541322813</v>
+        <v>6212.467979364402</v>
       </c>
       <c r="D37" t="n">
-        <v>94.52249852429159</v>
+        <v>161.1545444747312</v>
       </c>
     </row>
     <row r="38">
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5097.667269749789</v>
+        <v>6017.683773291199</v>
       </c>
       <c r="D38" t="n">
-        <v>457.9548194205087</v>
+        <v>345.4513331122757</v>
       </c>
     </row>
     <row r="39">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5175.588391214211</v>
+        <v>6064.907250855585</v>
       </c>
       <c r="D39" t="n">
-        <v>9.0965594910049</v>
+        <v>36.27984507576312</v>
       </c>
     </row>
     <row r="40">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6740.754361117152</v>
+        <v>7930.7604914366</v>
       </c>
       <c r="D40" t="n">
-        <v>32.38088512741851</v>
+        <v>29.51856301897689</v>
       </c>
     </row>
     <row r="41">
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9679.669588879928</v>
+        <v>11220.25985512408</v>
       </c>
       <c r="D41" t="n">
-        <v>540.0677779587267</v>
+        <v>370.9118295558135</v>
       </c>
     </row>
     <row r="42">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10298.34851997866</v>
+        <v>9198.298867870819</v>
       </c>
       <c r="D42" t="n">
-        <v>39.20175654093807</v>
+        <v>37.43008228093559</v>
       </c>
     </row>
     <row r="43">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2065.490940217901</v>
+        <v>2693.114402435814</v>
       </c>
       <c r="D43" t="n">
-        <v>163.7186334295402</v>
+        <v>220.0841292359559</v>
       </c>
     </row>
     <row r="44">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6540.606213633739</v>
+        <v>7168.138206310176</v>
       </c>
       <c r="D44" t="n">
-        <v>265.6004424262749</v>
+        <v>250.4283293983737</v>
       </c>
     </row>
     <row r="45">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8777.118362133126</v>
+        <v>9706.141836869614</v>
       </c>
       <c r="D45" t="n">
-        <v>167.615975595226</v>
+        <v>650.642417511757</v>
       </c>
     </row>
     <row r="46">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5250.893953587132</v>
+        <v>4650.81454446007</v>
       </c>
       <c r="D46" t="n">
-        <v>219.9151985980039</v>
+        <v>275.4269908630139</v>
       </c>
     </row>
     <row r="47">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2559.714891305407</v>
+        <v>2504.815967390928</v>
       </c>
       <c r="D47" t="n">
-        <v>8.18720406398824</v>
+        <v>14.91463454104603</v>
       </c>
     </row>
     <row r="48">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5231.929222302866</v>
+        <v>5265.566886313625</v>
       </c>
       <c r="D48" t="n">
-        <v>317.4167335945859</v>
+        <v>28.06652824390488</v>
       </c>
     </row>
     <row r="49">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11551.80365648849</v>
+        <v>8715.551422571154</v>
       </c>
       <c r="D49" t="n">
-        <v>413.9959128232585</v>
+        <v>427.9271397892024</v>
       </c>
     </row>
     <row r="50">
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3831.060433898964</v>
+        <v>3890.293327611228</v>
       </c>
       <c r="D50" t="n">
-        <v>239.7871425128548</v>
+        <v>149.384369187634</v>
       </c>
     </row>
     <row r="51">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7370.130017564305</v>
+        <v>7915.142146353784</v>
       </c>
       <c r="D51" t="n">
-        <v>37.79553414253802</v>
+        <v>98.13871389405905</v>
       </c>
     </row>
     <row r="52">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2024.62254967143</v>
+        <v>2882.748582488339</v>
       </c>
       <c r="D52" t="n">
-        <v>11.93506485687745</v>
+        <v>15.48235574652709</v>
       </c>
     </row>
     <row r="53">
@@ -1281,10 +1281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4020.578451085455</v>
+        <v>4334.830264086477</v>
       </c>
       <c r="D53" t="n">
-        <v>2.038992214379662</v>
+        <v>1.410969646388362</v>
       </c>
     </row>
     <row r="54">
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2475.877962269444</v>
+        <v>2370.569772129375</v>
       </c>
       <c r="D54" t="n">
-        <v>1.16133056765468</v>
+        <v>1.450426600853959</v>
       </c>
     </row>
     <row r="55">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8711.847513593621</v>
+        <v>5306.075226474051</v>
       </c>
       <c r="D55" t="n">
-        <v>250.8170790811131</v>
+        <v>389.4047530289492</v>
       </c>
     </row>
     <row r="56">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5002.497887576263</v>
+        <v>6165.020326953378</v>
       </c>
       <c r="D56" t="n">
-        <v>183.2550856621589</v>
+        <v>470.3342693915968</v>
       </c>
     </row>
     <row r="57">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10864.1823190403</v>
+        <v>10446.65246117198</v>
       </c>
       <c r="D57" t="n">
-        <v>56.54510193860845</v>
+        <v>73.92882673213082</v>
       </c>
     </row>
     <row r="58">
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10049.16952959156</v>
+        <v>8787.879415049807</v>
       </c>
       <c r="D58" t="n">
-        <v>5.151125876815819</v>
+        <v>2.845874233570411</v>
       </c>
     </row>
     <row r="59">
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2477.686028620295</v>
+        <v>2581.623778480804</v>
       </c>
       <c r="D59" t="n">
-        <v>167.5619230090631</v>
+        <v>193.5625685865455</v>
       </c>
     </row>
     <row r="60">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11224.97756519782</v>
+        <v>10657.65311762109</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.5777884486944351</v>
+        <v>86.29290770712979</v>
       </c>
     </row>
     <row r="61">
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4104.517618884695</v>
+        <v>4293.552187195292</v>
       </c>
       <c r="D61" t="n">
-        <v>123.0199549018166</v>
+        <v>198.8998432772309</v>
       </c>
     </row>
     <row r="62">
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2419.544529708796</v>
+        <v>3071.613512316096</v>
       </c>
       <c r="D62" t="n">
-        <v>89.02567090880406</v>
+        <v>81.06896800051938</v>
       </c>
     </row>
     <row r="63">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4029.725791299163</v>
+        <v>4098.758889138688</v>
       </c>
       <c r="D63" t="n">
-        <v>268.8668874130171</v>
+        <v>86.74320118095399</v>
       </c>
     </row>
     <row r="64">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6371.897403853239</v>
+        <v>6165.646430472294</v>
       </c>
       <c r="D64" t="n">
-        <v>306.2061818270614</v>
+        <v>210.7524734121741</v>
       </c>
     </row>
     <row r="65">
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12276.05163956402</v>
+        <v>11540.24402525268</v>
       </c>
       <c r="D65" t="n">
-        <v>180.8085317010412</v>
+        <v>330.8612095257656</v>
       </c>
     </row>
     <row r="66">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5336.06821515611</v>
+        <v>6428.512827941634</v>
       </c>
       <c r="D66" t="n">
-        <v>424.7442571748132</v>
+        <v>474.5925161650672</v>
       </c>
     </row>
     <row r="67">
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4107.360778961527</v>
+        <v>4126.224588995116</v>
       </c>
       <c r="D67" t="n">
-        <v>39.84814432751053</v>
+        <v>18.73650546131503</v>
       </c>
     </row>
     <row r="68">
@@ -1521,10 +1521,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12014.61953076008</v>
+        <v>8817.405295141607</v>
       </c>
       <c r="D68" t="n">
-        <v>626.9817369149032</v>
+        <v>744.3517673096264</v>
       </c>
     </row>
     <row r="69">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9120.708024756754</v>
+        <v>7330.172638868876</v>
       </c>
       <c r="D70" t="n">
-        <v>373.2405858477956</v>
+        <v>619.3297381778883</v>
       </c>
     </row>
     <row r="71">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4225.245493299513</v>
+        <v>4652.922228347511</v>
       </c>
       <c r="D72" t="n">
-        <v>286.6574064628375</v>
+        <v>188.5099766866024</v>
       </c>
     </row>
     <row r="73">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9766.204629384594</v>
+        <v>9073.783462714684</v>
       </c>
       <c r="D73" t="n">
-        <v>63.98011403639769</v>
+        <v>25.33388713612805</v>
       </c>
     </row>
     <row r="74">
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9609.579599507302</v>
+        <v>7722.973381585396</v>
       </c>
       <c r="D74" t="n">
-        <v>399.8716331124563</v>
+        <v>7.589026250908342</v>
       </c>
     </row>
     <row r="75">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6910.546165230896</v>
+        <v>7509.485644893381</v>
       </c>
       <c r="D75" t="n">
-        <v>394.3680832330635</v>
+        <v>397.7160549582119</v>
       </c>
     </row>
     <row r="76">
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13492.1160893081</v>
+        <v>14730.0994366911</v>
       </c>
       <c r="D76" t="n">
-        <v>335.646935265587</v>
+        <v>329.1297122351858</v>
       </c>
     </row>
     <row r="77">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7681.706208050597</v>
+        <v>8326.774798264474</v>
       </c>
       <c r="D77" t="n">
-        <v>6.534903066434579</v>
+        <v>42.11640631146012</v>
       </c>
     </row>
     <row r="78">
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4173.314934902139</v>
+        <v>4287.557146161103</v>
       </c>
       <c r="D78" t="n">
-        <v>59.83424244523755</v>
+        <v>139.9512751251464</v>
       </c>
     </row>
     <row r="79">
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9495.874125033948</v>
+        <v>6747.033810532985</v>
       </c>
       <c r="D79" t="n">
-        <v>38.38310699861464</v>
+        <v>31.47340769621822</v>
       </c>
     </row>
     <row r="80">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2006.259872483464</v>
+        <v>3135.302908302606</v>
       </c>
       <c r="D80" t="n">
-        <v>67.47409266519811</v>
+        <v>259.8534546847612</v>
       </c>
     </row>
     <row r="81">
@@ -1729,10 +1729,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4672.801301725111</v>
+        <v>4497.26949880619</v>
       </c>
       <c r="D81" t="n">
-        <v>160.2474780313125</v>
+        <v>264.2683148563101</v>
       </c>
     </row>
     <row r="82">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1818.187186341008</v>
+        <v>2720.784080937073</v>
       </c>
       <c r="D82" t="n">
-        <v>46.89529334314282</v>
+        <v>169.7271983383672</v>
       </c>
     </row>
     <row r="83">
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7073.010636976719</v>
+        <v>7553.809157060848</v>
       </c>
       <c r="D83" t="n">
-        <v>207.6711662613811</v>
+        <v>446.0164219408927</v>
       </c>
     </row>
     <row r="84">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11801.55131675137</v>
+        <v>7733.402979092079</v>
       </c>
       <c r="D84" t="n">
-        <v>88.50487538994904</v>
+        <v>43.81480103643069</v>
       </c>
     </row>
     <row r="85">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7484.728383662492</v>
+        <v>5125.739015731108</v>
       </c>
       <c r="D85" t="n">
-        <v>10.00603929655361</v>
+        <v>29.57149514327306</v>
       </c>
     </row>
     <row r="86">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3511.185017206811</v>
+        <v>3392.966416264142</v>
       </c>
       <c r="D86" t="n">
-        <v>190.4920472457886</v>
+        <v>131.0010472154594</v>
       </c>
     </row>
     <row r="87">
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2399.066665205743</v>
+        <v>2648.470511052044</v>
       </c>
       <c r="D87" t="n">
-        <v>192.4428216325548</v>
+        <v>21.29854468956768</v>
       </c>
     </row>
     <row r="88">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5786.726006514819</v>
+        <v>5959.677129129136</v>
       </c>
       <c r="D88" t="n">
-        <v>292.1534214367108</v>
+        <v>267.9801105604595</v>
       </c>
     </row>
     <row r="89">
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7407.217287545635</v>
+        <v>7482.505540175208</v>
       </c>
       <c r="D89" t="n">
-        <v>26.67016335659899</v>
+        <v>47.70392704127651</v>
       </c>
     </row>
     <row r="90">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6897.16852102474</v>
+        <v>8425.188737265686</v>
       </c>
       <c r="D90" t="n">
-        <v>39.08370196708541</v>
+        <v>28.12395281282915</v>
       </c>
     </row>
     <row r="91">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>11031.41849005539</v>
+        <v>12601.59230784201</v>
       </c>
       <c r="D92" t="n">
-        <v>68.90391984814964</v>
+        <v>142.2660087153807</v>
       </c>
     </row>
     <row r="93">
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9578.018200554365</v>
+        <v>6744.398276881282</v>
       </c>
       <c r="D93" t="n">
-        <v>254.8594773873401</v>
+        <v>191.2393914761535</v>
       </c>
     </row>
     <row r="94">
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2360.340928021382</v>
+        <v>2831.63436559582</v>
       </c>
       <c r="D94" t="n">
-        <v>85.90233863452235</v>
+        <v>200.404933690543</v>
       </c>
     </row>
     <row r="95">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>8439.320653159968</v>
+        <v>6307.710286725563</v>
       </c>
       <c r="D95" t="n">
-        <v>193.5821219417351</v>
+        <v>115.5864369506694</v>
       </c>
     </row>
     <row r="96">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4614.376167885129</v>
+        <v>5881.029454289241</v>
       </c>
       <c r="D96" t="n">
-        <v>290.3165847735149</v>
+        <v>206.5828647111873</v>
       </c>
     </row>
     <row r="97">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6470.220358687511</v>
+        <v>7600.586357715675</v>
       </c>
       <c r="D97" t="n">
-        <v>347.5246051760886</v>
+        <v>198.0643168933534</v>
       </c>
     </row>
     <row r="98">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7864.642734322804</v>
+        <v>6794.789327185373</v>
       </c>
       <c r="D98" t="n">
-        <v>308.0193541365851</v>
+        <v>309.6192813174758</v>
       </c>
     </row>
     <row r="99">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>12157.62986736341</v>
+        <v>12173.97738734481</v>
       </c>
       <c r="D99" t="n">
-        <v>47.28416061827729</v>
+        <v>49.20703940560105</v>
       </c>
     </row>
     <row r="100">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6523.974585039805</v>
+        <v>6681.410402973968</v>
       </c>
       <c r="D100" t="n">
-        <v>55.89305271523897</v>
+        <v>29.36897338030626</v>
       </c>
     </row>
     <row r="101">
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>12233.88992060948</v>
+        <v>10824.83950809713</v>
       </c>
       <c r="D101" t="n">
-        <v>264.7037249097239</v>
+        <v>1273.316826738798</v>
       </c>
     </row>
     <row r="102">
@@ -2065,10 +2065,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3361.009596047632</v>
+        <v>5124.338769064041</v>
       </c>
       <c r="D102" t="n">
-        <v>161.8234025897442</v>
+        <v>207.9652719761402</v>
       </c>
     </row>
     <row r="103">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-2967208478.617933</v>
+        <v>-3550416973.907449</v>
       </c>
       <c r="D103" t="inlineStr"/>
     </row>
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>16232.8095326837</v>
+        <v>13405.32848571575</v>
       </c>
       <c r="D104" t="n">
-        <v>671.3278843603908</v>
+        <v>568.2633895409709</v>
       </c>
     </row>
     <row r="105">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5948.928661128855</v>
+        <v>4812.006176268425</v>
       </c>
       <c r="D105" t="n">
-        <v>32.7234796871895</v>
+        <v>14.08612769822732</v>
       </c>
     </row>
     <row r="106">
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3983.669216024738</v>
+        <v>4843.977084282258</v>
       </c>
       <c r="D107" t="n">
-        <v>251.8243546388933</v>
+        <v>324.6417945411277</v>
       </c>
     </row>
     <row r="108">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2278.962136626902</v>
+        <v>2641.7923850945</v>
       </c>
       <c r="D109" t="n">
-        <v>123.2537537819456</v>
+        <v>157.6092267918557</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-3418123470.066618</v>
+        <v>-3624588892.577486</v>
       </c>
       <c r="D110" t="inlineStr"/>
     </row>
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9668.143895897234</v>
+        <v>11286.45729049682</v>
       </c>
       <c r="D111" t="n">
-        <v>26.5948037501576</v>
+        <v>67.53219298960636</v>
       </c>
     </row>
     <row r="112">
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>10113.55750369784</v>
+        <v>7313.720398752785</v>
       </c>
       <c r="D112" t="n">
-        <v>533.8628096091164</v>
+        <v>395.6319835041886</v>
       </c>
     </row>
     <row r="113">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4697.032962453268</v>
+        <v>4711.348460732975</v>
       </c>
       <c r="D113" t="n">
-        <v>195.7547765702244</v>
+        <v>170.6372165245573</v>
       </c>
     </row>
     <row r="114">
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3964.569210471094</v>
+        <v>4380.674928367021</v>
       </c>
       <c r="D114" t="n">
-        <v>235.2829982326583</v>
+        <v>116.0148334647145</v>
       </c>
     </row>
     <row r="115">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7190.549166731193</v>
+        <v>4845.09859800881</v>
       </c>
       <c r="D115" t="n">
-        <v>325.0566281404725</v>
+        <v>351.19805034364</v>
       </c>
     </row>
     <row r="116">
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5361.658029786199</v>
+        <v>5733.065899745624</v>
       </c>
       <c r="D116" t="n">
-        <v>296.5023736445487</v>
+        <v>246.2748985603153</v>
       </c>
     </row>
     <row r="117">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11230.70766824534</v>
+        <v>8468.965378737499</v>
       </c>
       <c r="D117" t="n">
-        <v>244.3198132921934</v>
+        <v>258.3738469079607</v>
       </c>
     </row>
     <row r="118">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11975.07004575299</v>
+        <v>10925.50466584595</v>
       </c>
       <c r="D118" t="n">
-        <v>767.4034581517086</v>
+        <v>637.6416148131228</v>
       </c>
     </row>
     <row r="119">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8137.098753486741</v>
+        <v>13870.74129630321</v>
       </c>
       <c r="D120" t="n">
-        <v>582.6066883061787</v>
+        <v>770.4194493248317</v>
       </c>
     </row>
     <row r="121">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6071.634637423272</v>
+        <v>7033.080282615016</v>
       </c>
       <c r="D121" t="n">
-        <v>194.5940234160211</v>
+        <v>137.0535948753159</v>
       </c>
     </row>
     <row r="122">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4515.119101281161</v>
+        <v>5132.664733114151</v>
       </c>
       <c r="D122" t="n">
-        <v>48.79576509994133</v>
+        <v>46.58982021858257</v>
       </c>
     </row>
     <row r="123">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-3066251506.712702</v>
+        <v>-3515843379.477973</v>
       </c>
       <c r="D123" t="inlineStr"/>
     </row>
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4125.074094648763</v>
+        <v>5212.512850257282</v>
       </c>
       <c r="D124" t="n">
-        <v>26.29190571507</v>
+        <v>36.86600261833848</v>
       </c>
     </row>
     <row r="125">
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4840.481473845512</v>
+        <v>4712.440194402503</v>
       </c>
       <c r="D125" t="n">
-        <v>39.04939409169246</v>
+        <v>33.72345467832621</v>
       </c>
     </row>
     <row r="126">
@@ -2443,10 +2443,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2720.119138095273</v>
+        <v>3719.856454789458</v>
       </c>
       <c r="D126" t="n">
-        <v>256.5905537344732</v>
+        <v>236.2697805380053</v>
       </c>
     </row>
     <row r="127">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8970.639518868127</v>
+        <v>13884.35274378965</v>
       </c>
       <c r="D128" t="n">
-        <v>12.30859110089648</v>
+        <v>84.23558658933592</v>
       </c>
     </row>
     <row r="129">
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7848.701419381801</v>
+        <v>10022.59439534979</v>
       </c>
       <c r="D129" t="n">
-        <v>549.2661259471456</v>
+        <v>256.9504228352443</v>
       </c>
     </row>
     <row r="130">
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8326.503618129969</v>
+        <v>10924.58177711393</v>
       </c>
       <c r="D131" t="n">
-        <v>274.8937709894954</v>
+        <v>626.4980136962738</v>
       </c>
     </row>
     <row r="132">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3885.02973533552</v>
+        <v>3506.938368531791</v>
       </c>
       <c r="D132" t="n">
-        <v>66.82792811367968</v>
+        <v>217.2301819826618</v>
       </c>
     </row>
     <row r="133">
@@ -2555,10 +2555,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2630.327551820316</v>
+        <v>3148.762023446848</v>
       </c>
       <c r="D133" t="n">
-        <v>130.8501349322522</v>
+        <v>75.81063902848592</v>
       </c>
     </row>
     <row r="134">
@@ -2571,10 +2571,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>9466.953924857349</v>
+        <v>8922.403727181852</v>
       </c>
       <c r="D134" t="n">
-        <v>530.9543593182875</v>
+        <v>395.68407363214</v>
       </c>
     </row>
     <row r="135">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3371.80531045478</v>
+        <v>3882.866254855488</v>
       </c>
       <c r="D135" t="n">
-        <v>128.2461527500029</v>
+        <v>151.1258559534674</v>
       </c>
     </row>
     <row r="136">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>11915.89078567824</v>
+        <v>11293.82201034596</v>
       </c>
       <c r="D136" t="n">
-        <v>776.009912169317</v>
+        <v>700.2739658408948</v>
       </c>
     </row>
     <row r="137">
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7180.022338130194</v>
+        <v>10143.93941087879</v>
       </c>
       <c r="D137" t="n">
-        <v>196.4689058492045</v>
+        <v>618.2695892269298</v>
       </c>
     </row>
     <row r="138">
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>10239.20777813298</v>
+        <v>9747.1446186058</v>
       </c>
       <c r="D138" t="n">
-        <v>551.8603693741509</v>
+        <v>727.4221899687826</v>
       </c>
     </row>
     <row r="139">
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4255.750793095996</v>
+        <v>4012.541898187865</v>
       </c>
       <c r="D139" t="n">
-        <v>264.8638656637661</v>
+        <v>227.8490710672182</v>
       </c>
     </row>
     <row r="140">
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5041.649607593519</v>
+        <v>5707.542793468329</v>
       </c>
       <c r="D140" t="n">
-        <v>196.0800244965366</v>
+        <v>214.5516865327832</v>
       </c>
     </row>
     <row r="141">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4387.438902630429</v>
+        <v>5343.298536927368</v>
       </c>
       <c r="D141" t="n">
-        <v>312.9812141013912</v>
+        <v>382.1689442002507</v>
       </c>
     </row>
     <row r="142">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7178.146976829398</v>
+        <v>7905.235910193309</v>
       </c>
       <c r="D142" t="n">
-        <v>483.8365364888335</v>
+        <v>195.1825224472076</v>
       </c>
     </row>
     <row r="143">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6674.816494677228</v>
+        <v>7144.333053429869</v>
       </c>
       <c r="D143" t="n">
-        <v>420.9146370998743</v>
+        <v>447.736387360651</v>
       </c>
     </row>
     <row r="144">
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3483.295913487444</v>
+        <v>3090.211092477882</v>
       </c>
       <c r="D144" t="n">
-        <v>192.2651225550904</v>
+        <v>277.6602225429959</v>
       </c>
     </row>
     <row r="145">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3552.590801541676</v>
+        <v>3121.967812960429</v>
       </c>
       <c r="D145" t="n">
-        <v>197.3645985667476</v>
+        <v>56.18590784795978</v>
       </c>
     </row>
     <row r="146">
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11958.41866233345</v>
+        <v>13724.47997006176</v>
       </c>
       <c r="D146" t="n">
-        <v>607.7540424440314</v>
+        <v>627.7965920568047</v>
       </c>
     </row>
     <row r="147">
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>8608.343181176537</v>
+        <v>13172.68958016323</v>
       </c>
       <c r="D147" t="n">
-        <v>513.2963686574695</v>
+        <v>195.8588804303684</v>
       </c>
     </row>
     <row r="148">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>12776.30225923008</v>
+        <v>9652.909116844785</v>
       </c>
       <c r="D148" t="n">
-        <v>554.8468697458693</v>
+        <v>205.1436156126798</v>
       </c>
     </row>
     <row r="149">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3242.507547182613</v>
+        <v>2991.129004937807</v>
       </c>
       <c r="D149" t="n">
-        <v>92.85946663456416</v>
+        <v>2.102596387487331</v>
       </c>
     </row>
     <row r="150">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-3338813700.174971</v>
+        <v>-3334796378.622916</v>
       </c>
       <c r="D150" t="inlineStr"/>
     </row>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4441.132312092761</v>
+        <v>3662.320009038014</v>
       </c>
       <c r="D151" t="n">
-        <v>32.90370909303166</v>
+        <v>12.12989859958267</v>
       </c>
     </row>
     <row r="152">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>12456.14607042273</v>
+        <v>8728.913733705531</v>
       </c>
       <c r="D152" t="n">
-        <v>537.8237781710903</v>
+        <v>706.3571727703933</v>
       </c>
     </row>
     <row r="153">
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1999.729249827913</v>
+        <v>2397.284255769375</v>
       </c>
       <c r="D153" t="n">
-        <v>11.3376643611423</v>
+        <v>17.88864751806336</v>
       </c>
     </row>
     <row r="154">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8597.497255734141</v>
+        <v>13256.53889452747</v>
       </c>
       <c r="D154" t="n">
-        <v>302.0864310580354</v>
+        <v>688.6965295223381</v>
       </c>
     </row>
     <row r="155">
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>9423.67555419657</v>
+        <v>8477.983473559007</v>
       </c>
       <c r="D155" t="n">
-        <v>483.5007238387748</v>
+        <v>318.8988053431736</v>
       </c>
     </row>
     <row r="156">
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>11819.80939402526</v>
+        <v>12534.83910461833</v>
       </c>
       <c r="D156" t="n">
-        <v>34.83728485659884</v>
+        <v>43.18625634153232</v>
       </c>
     </row>
     <row r="157">
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2723.709670819473</v>
+        <v>3126.219333529355</v>
       </c>
       <c r="D157" t="n">
-        <v>67.59210896004669</v>
+        <v>199.5131463316387</v>
       </c>
     </row>
     <row r="158">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7578.433257786011</v>
+        <v>5795.309436188894</v>
       </c>
       <c r="D158" t="n">
-        <v>299.6299661330315</v>
+        <v>93.05472650071441</v>
       </c>
     </row>
   </sheetData>

--- a/data/revenue/total_revenue.xlsx
+++ b/data/revenue/total_revenue.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3459.039148912596</v>
+        <v>2949.052392379189</v>
       </c>
       <c r="D3" t="n">
         <v>174.4971979922003</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6624.080334918201</v>
+        <v>5800.113345474487</v>
       </c>
       <c r="D4" t="n">
         <v>417.8402476202729</v>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8809.214101573745</v>
+        <v>7588.92808445109</v>
       </c>
       <c r="D5" t="n">
         <v>502.6013837379472</v>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6207.885175487334</v>
+        <v>5415.22787186546</v>
       </c>
       <c r="D6" t="n">
         <v>29.63019839944093</v>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4646.944543077418</v>
+        <v>3946.42418449205</v>
       </c>
       <c r="D7" t="n">
         <v>299.7775784575481</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9520.008401501635</v>
+        <v>8413.163788029546</v>
       </c>
       <c r="D8" t="n">
         <v>250.0215626692212</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8448.688220921871</v>
+        <v>7346.720469052751</v>
       </c>
       <c r="D9" t="n">
         <v>124.3157138504505</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3546.461765177231</v>
+        <v>3024.309872630948</v>
       </c>
       <c r="D10" t="n">
         <v>226.4827167309857</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8960.240511020451</v>
+        <v>7894.530971737279</v>
       </c>
       <c r="D11" t="n">
         <v>448.1115261533535</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3661.300149560364</v>
+        <v>3132.074372163017</v>
       </c>
       <c r="D12" t="n">
         <v>16.12582062038454</v>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2133.486618583383</v>
+        <v>1848.338683862039</v>
       </c>
       <c r="D13" t="n">
         <v>12.0193420874278</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5397.056626295747</v>
+        <v>4642.311464598833</v>
       </c>
       <c r="D14" t="n">
         <v>239.3786144687925</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3782.307087918168</v>
+        <v>3251.1160003871</v>
       </c>
       <c r="D15" t="n">
         <v>6.997577665245847</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14314.47746676806</v>
+        <v>11833.01318087634</v>
       </c>
       <c r="D16" t="n">
         <v>625.0250400330402</v>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12079.92250192237</v>
+        <v>10042.57240195546</v>
       </c>
       <c r="D17" t="n">
         <v>49.73908124633026</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7140.67839498262</v>
+        <v>6101.555389161171</v>
       </c>
       <c r="D18" t="n">
         <v>200.6587665495748</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5497.764485705557</v>
+        <v>4704.229538652146</v>
       </c>
       <c r="D19" t="n">
         <v>23.49188598604879</v>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5038.918339524042</v>
+        <v>4366.416625145958</v>
       </c>
       <c r="D20" t="n">
         <v>345.1563130118697</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3193.469263248304</v>
+        <v>2705.751341588212</v>
       </c>
       <c r="D21" t="n">
         <v>121.0678881769322</v>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15278.14093947158</v>
+        <v>12687.60906477322</v>
       </c>
       <c r="D22" t="n">
         <v>60.37397660143609</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3123.48769043201</v>
+        <v>2735.115302335493</v>
       </c>
       <c r="D23" t="n">
         <v>89.61032960283262</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6593.172222070822</v>
+        <v>5709.080533781133</v>
       </c>
       <c r="D24" t="n">
         <v>292.0936771628947</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2830.948214550826</v>
+        <v>2463.396560513575</v>
       </c>
       <c r="D25" t="n">
         <v>183.2456538121466</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5384.075240441389</v>
+        <v>4679.584111808583</v>
       </c>
       <c r="D26" t="n">
         <v>237.8550937089497</v>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7496.440597733875</v>
+        <v>6445.433083830848</v>
       </c>
       <c r="D27" t="n">
         <v>45.03671675808876</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6324.004817445851</v>
+        <v>5364.520559776351</v>
       </c>
       <c r="D28" t="n">
         <v>136.8013828726772</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1732.930170175151</v>
+        <v>1552.914579221611</v>
       </c>
       <c r="D29" t="n">
         <v>95.21676614888321</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4639.96398294305</v>
+        <v>3950.68062120153</v>
       </c>
       <c r="D30" t="n">
         <v>24.52586073332256</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2521.268143396527</v>
+        <v>2193.000960166394</v>
       </c>
       <c r="D31" t="n">
         <v>201.6766650352661</v>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9025.952658255082</v>
+        <v>7720.166127903594</v>
       </c>
       <c r="D32" t="n">
         <v>368.5960039714619</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8718.305494790553</v>
+        <v>7514.707978503045</v>
       </c>
       <c r="D33" t="n">
         <v>30.54650652325427</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5461.548914293287</v>
+        <v>4765.929086069741</v>
       </c>
       <c r="D34" t="n">
         <v>333.1499283625006</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6445.182904150264</v>
+        <v>5575.30907362619</v>
       </c>
       <c r="D35" t="n">
         <v>26.45068525034418</v>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5355.086551195563</v>
+        <v>4659.749819604406</v>
       </c>
       <c r="D36" t="n">
         <v>23.89423015862022</v>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6212.467979364402</v>
+        <v>5350.369149032043</v>
       </c>
       <c r="D37" t="n">
         <v>161.1545444747312</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6017.683773291199</v>
+        <v>5255.097909830048</v>
       </c>
       <c r="D38" t="n">
         <v>345.4513331122757</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6064.907250855585</v>
+        <v>5215.72202817096</v>
       </c>
       <c r="D39" t="n">
         <v>36.27984507576312</v>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7930.7604914366</v>
+        <v>6751.934053726348</v>
       </c>
       <c r="D40" t="n">
         <v>29.51856301897689</v>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11220.25985512408</v>
+        <v>9205.295474171677</v>
       </c>
       <c r="D41" t="n">
         <v>370.9118295558135</v>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9198.298867870819</v>
+        <v>7973.56215702918</v>
       </c>
       <c r="D42" t="n">
         <v>37.43008228093559</v>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2693.114402435814</v>
+        <v>2337.60291745968</v>
       </c>
       <c r="D43" t="n">
         <v>220.0841292359559</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7168.138206310176</v>
+        <v>6282.818971270299</v>
       </c>
       <c r="D44" t="n">
         <v>250.4283293983737</v>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9706.141836869614</v>
+        <v>8255.976644060212</v>
       </c>
       <c r="D45" t="n">
         <v>650.642417511757</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4650.81454446007</v>
+        <v>4109.134108245046</v>
       </c>
       <c r="D46" t="n">
         <v>275.4269908630139</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2504.815967390928</v>
+        <v>2167.662248717716</v>
       </c>
       <c r="D47" t="n">
         <v>14.91463454104603</v>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5265.566886313625</v>
+        <v>4586.937168767676</v>
       </c>
       <c r="D48" t="n">
         <v>28.06652824390488</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8715.551422571154</v>
+        <v>7684.395771840423</v>
       </c>
       <c r="D49" t="n">
         <v>427.9271397892024</v>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3890.293327611228</v>
+        <v>3350.842368477916</v>
       </c>
       <c r="D50" t="n">
         <v>149.384369187634</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7915.142146353784</v>
+        <v>6884.449193692737</v>
       </c>
       <c r="D51" t="n">
         <v>98.13871389405905</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2882.748582488339</v>
+        <v>2512.375298977121</v>
       </c>
       <c r="D52" t="n">
         <v>15.48235574652709</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4334.830264086477</v>
+        <v>3742.66831910332</v>
       </c>
       <c r="D53" t="n">
         <v>1.410969646388362</v>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2370.569772129375</v>
+        <v>2126.696460108398</v>
       </c>
       <c r="D54" t="n">
         <v>1.450426600853959</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5306.075226474051</v>
+        <v>4699.878935096907</v>
       </c>
       <c r="D55" t="n">
         <v>389.4047530289492</v>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6165.020326953378</v>
+        <v>5309.776786637908</v>
       </c>
       <c r="D56" t="n">
         <v>470.3342693915968</v>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10446.65246117198</v>
+        <v>8892.078810827257</v>
       </c>
       <c r="D57" t="n">
         <v>73.92882673213082</v>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8787.879415049807</v>
+        <v>7589.531309986621</v>
       </c>
       <c r="D58" t="n">
         <v>2.845874233570411</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2581.623778480804</v>
+        <v>2236.043556214993</v>
       </c>
       <c r="D59" t="n">
         <v>193.5625685865455</v>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10657.65311762109</v>
+        <v>9073.735436392957</v>
       </c>
       <c r="D60" t="n">
         <v>86.29290770712979</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4293.552187195292</v>
+        <v>3686.968559799485</v>
       </c>
       <c r="D61" t="n">
         <v>198.8998432772309</v>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3071.613512316096</v>
+        <v>2675.209255231776</v>
       </c>
       <c r="D62" t="n">
         <v>81.06896800051938</v>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4098.758889138688</v>
+        <v>3532.639946181753</v>
       </c>
       <c r="D63" t="n">
         <v>86.74320118095399</v>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6165.646430472294</v>
+        <v>5324.517424049637</v>
       </c>
       <c r="D64" t="n">
         <v>210.7524734121741</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11540.24402525268</v>
+        <v>9896.292044302589</v>
       </c>
       <c r="D65" t="n">
         <v>330.8612095257656</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6428.512827941634</v>
+        <v>5623.887951157905</v>
       </c>
       <c r="D66" t="n">
         <v>474.5925161650672</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4126.224588995116</v>
+        <v>3559.506801927612</v>
       </c>
       <c r="D67" t="n">
         <v>18.73650546131503</v>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8817.405295141607</v>
+        <v>7719.315684361776</v>
       </c>
       <c r="D68" t="n">
         <v>744.3517673096264</v>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7330.172638868876</v>
+        <v>6239.229277647079</v>
       </c>
       <c r="D70" t="n">
         <v>619.3297381778883</v>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4652.922228347511</v>
+        <v>4016.512106406706</v>
       </c>
       <c r="D72" t="n">
         <v>188.5099766866024</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9073.783462714684</v>
+        <v>7750.124695010849</v>
       </c>
       <c r="D73" t="n">
         <v>25.33388713612805</v>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7722.973381585396</v>
+        <v>6620.413989945998</v>
       </c>
       <c r="D74" t="n">
         <v>7.589026250908342</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7509.485644893381</v>
+        <v>6536.480263591866</v>
       </c>
       <c r="D75" t="n">
         <v>397.7160549582119</v>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>14730.0994366911</v>
+        <v>12413.42977253102</v>
       </c>
       <c r="D76" t="n">
         <v>329.1297122351858</v>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8326.774798264474</v>
+        <v>7191.120748410512</v>
       </c>
       <c r="D77" t="n">
         <v>42.11640631146012</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4287.557146161103</v>
+        <v>3701.29770229731</v>
       </c>
       <c r="D78" t="n">
         <v>139.9512751251464</v>
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6747.033810532985</v>
+        <v>5854.493172319348</v>
       </c>
       <c r="D79" t="n">
         <v>31.47340769621822</v>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3135.302908302606</v>
+        <v>2674.805767381934</v>
       </c>
       <c r="D80" t="n">
         <v>259.8534546847612</v>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4497.26949880619</v>
+        <v>3962.470123679231</v>
       </c>
       <c r="D81" t="n">
         <v>264.2683148563101</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2720.784080937073</v>
+        <v>2287.273473015565</v>
       </c>
       <c r="D82" t="n">
         <v>169.7271983383672</v>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7553.809157060848</v>
+        <v>6327.368995020977</v>
       </c>
       <c r="D83" t="n">
         <v>446.0164219408927</v>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7733.402979092079</v>
+        <v>6802.021058164815</v>
       </c>
       <c r="D84" t="n">
         <v>43.81480103643069</v>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5125.739015731108</v>
+        <v>4449.538992292099</v>
       </c>
       <c r="D85" t="n">
         <v>29.57149514327306</v>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3392.966416264142</v>
+        <v>2896.953878645133</v>
       </c>
       <c r="D86" t="n">
         <v>131.0010472154594</v>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2648.470511052044</v>
+        <v>2296.448890846865</v>
       </c>
       <c r="D87" t="n">
         <v>21.29854468956768</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5959.677129129136</v>
+        <v>5116.68571415914</v>
       </c>
       <c r="D88" t="n">
         <v>267.9801105604595</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7482.505540175208</v>
+        <v>6441.643394990472</v>
       </c>
       <c r="D89" t="n">
         <v>47.70392704127651</v>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8425.188737265686</v>
+        <v>7202.840867093673</v>
       </c>
       <c r="D90" t="n">
         <v>28.12395281282915</v>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>12601.59230784201</v>
+        <v>10535.51053976017</v>
       </c>
       <c r="D92" t="n">
         <v>142.2660087153807</v>
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6744.398276881282</v>
+        <v>5814.951305082947</v>
       </c>
       <c r="D93" t="n">
         <v>191.2393914761535</v>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2831.63436559582</v>
+        <v>2459.106776170082</v>
       </c>
       <c r="D94" t="n">
         <v>200.404933690543</v>
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6307.710286725563</v>
+        <v>5434.800888154427</v>
       </c>
       <c r="D95" t="n">
         <v>115.5864369506694</v>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5881.029454289241</v>
+        <v>4966.750783615835</v>
       </c>
       <c r="D96" t="n">
         <v>206.5828647111873</v>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7600.586357715675</v>
+        <v>6415.842901554595</v>
       </c>
       <c r="D97" t="n">
         <v>198.0643168933534</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6794.789327185373</v>
+        <v>5791.631827811576</v>
       </c>
       <c r="D98" t="n">
         <v>309.6192813174758</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>12173.97738734481</v>
+        <v>10442.17008062535</v>
       </c>
       <c r="D99" t="n">
         <v>49.20703940560105</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6681.410402973968</v>
+        <v>5860.745900941041</v>
       </c>
       <c r="D100" t="n">
         <v>29.36897338030626</v>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10824.83950809713</v>
+        <v>9293.778337125452</v>
       </c>
       <c r="D101" t="n">
         <v>1273.316826738798</v>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5124.338769064041</v>
+        <v>4346.756977952289</v>
       </c>
       <c r="D102" t="n">
         <v>207.9652719761402</v>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-3550416973.907449</v>
+        <v>0</v>
       </c>
       <c r="D103" t="inlineStr"/>
     </row>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13405.32848571575</v>
+        <v>11144.40360819177</v>
       </c>
       <c r="D104" t="n">
         <v>568.2633895409709</v>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4812.006176268425</v>
+        <v>4089.514048309734</v>
       </c>
       <c r="D105" t="n">
         <v>14.08612769822732</v>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4843.977084282258</v>
+        <v>4106.589360882787</v>
       </c>
       <c r="D107" t="n">
         <v>324.6417945411277</v>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2641.7923850945</v>
+        <v>2292.741450285277</v>
       </c>
       <c r="D109" t="n">
         <v>157.6092267918557</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-3624588892.577486</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr"/>
     </row>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>11286.45729049682</v>
+        <v>9818.563090121379</v>
       </c>
       <c r="D111" t="n">
         <v>67.53219298960636</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7313.720398752785</v>
+        <v>6263.572914404575</v>
       </c>
       <c r="D112" t="n">
         <v>395.6319835041886</v>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4711.348460732975</v>
+        <v>4080.983400922562</v>
       </c>
       <c r="D113" t="n">
         <v>170.6372165245573</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4380.674928367021</v>
+        <v>3780.075192772123</v>
       </c>
       <c r="D114" t="n">
         <v>116.0148334647145</v>
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4845.09859800881</v>
+        <v>4207.347196346936</v>
       </c>
       <c r="D115" t="n">
         <v>351.19805034364</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5733.065899745624</v>
+        <v>5000.287288422706</v>
       </c>
       <c r="D116" t="n">
         <v>246.2748985603153</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>8468.965378737499</v>
+        <v>7391.651037390224</v>
       </c>
       <c r="D117" t="n">
         <v>258.3738469079607</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10925.50466584595</v>
+        <v>9482.17422460024</v>
       </c>
       <c r="D118" t="n">
         <v>637.6416148131228</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>13870.74129630321</v>
+        <v>11541.79680421166</v>
       </c>
       <c r="D120" t="n">
         <v>770.4194493248317</v>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7033.080282615016</v>
+        <v>6171.510344472516</v>
       </c>
       <c r="D121" t="n">
         <v>137.0535948753159</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5132.664733114151</v>
+        <v>4387.799744714472</v>
       </c>
       <c r="D122" t="n">
         <v>46.58982021858257</v>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-3515843379.477973</v>
+        <v>0</v>
       </c>
       <c r="D123" t="inlineStr"/>
     </row>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5212.512850257282</v>
+        <v>4528.624075106798</v>
       </c>
       <c r="D124" t="n">
         <v>36.86600261833848</v>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4712.440194402503</v>
+        <v>4155.457984842776</v>
       </c>
       <c r="D125" t="n">
         <v>33.72345467832621</v>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3719.856454789458</v>
+        <v>3180.329704737818</v>
       </c>
       <c r="D126" t="n">
         <v>236.2697805380053</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>13884.35274378965</v>
+        <v>11518.54156112379</v>
       </c>
       <c r="D128" t="n">
         <v>84.23558658933592</v>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>10022.59439534979</v>
+        <v>8764.520028757395</v>
       </c>
       <c r="D129" t="n">
         <v>256.9504228352443</v>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>10924.58177711393</v>
+        <v>9083.918505090332</v>
       </c>
       <c r="D131" t="n">
         <v>626.4980136962738</v>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3506.938368531791</v>
+        <v>3075.665571337091</v>
       </c>
       <c r="D132" t="n">
         <v>217.2301819826618</v>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3148.762023446848</v>
+        <v>2689.12008683307</v>
       </c>
       <c r="D133" t="n">
         <v>75.81063902848592</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8922.403727181852</v>
+        <v>7733.760656116769</v>
       </c>
       <c r="D134" t="n">
         <v>395.68407363214</v>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3882.866254855488</v>
+        <v>3327.691781871536</v>
       </c>
       <c r="D135" t="n">
         <v>151.1258559534674</v>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>11293.82201034596</v>
+        <v>9717.936055191902</v>
       </c>
       <c r="D136" t="n">
         <v>700.2739658408948</v>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>10143.93941087879</v>
+        <v>8599.896479139739</v>
       </c>
       <c r="D137" t="n">
         <v>618.2695892269298</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9747.1446186058</v>
+        <v>8322.164054413108</v>
       </c>
       <c r="D138" t="n">
         <v>727.4221899687826</v>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4012.541898187865</v>
+        <v>3453.277440812578</v>
       </c>
       <c r="D139" t="n">
         <v>227.8490710672182</v>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5707.542793468329</v>
+        <v>4880.445194035296</v>
       </c>
       <c r="D140" t="n">
         <v>214.5516865327832</v>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5343.298536927368</v>
+        <v>4582.125337773438</v>
       </c>
       <c r="D141" t="n">
         <v>382.1689442002507</v>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7905.235910193309</v>
+        <v>6879.365527492064</v>
       </c>
       <c r="D142" t="n">
         <v>195.1825224472076</v>
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7144.333053429869</v>
+        <v>6194.938159658812</v>
       </c>
       <c r="D143" t="n">
         <v>447.736387360651</v>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3090.211092477882</v>
+        <v>2691.0151117775</v>
       </c>
       <c r="D144" t="n">
         <v>277.6602225429959</v>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3121.967812960429</v>
+        <v>2802.639633106862</v>
       </c>
       <c r="D145" t="n">
         <v>56.18590784795978</v>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>13724.47997006176</v>
+        <v>11505.91459781476</v>
       </c>
       <c r="D146" t="n">
         <v>627.7965920568047</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>13172.68958016323</v>
+        <v>10956.38463522901</v>
       </c>
       <c r="D147" t="n">
         <v>195.8588804303684</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>9652.909116844785</v>
+        <v>8363.401602891807</v>
       </c>
       <c r="D148" t="n">
         <v>205.1436156126798</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2991.129004937807</v>
+        <v>2605.07988352972</v>
       </c>
       <c r="D149" t="n">
         <v>2.102596387487331</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-3334796378.622916</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr"/>
     </row>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3662.320009038014</v>
+        <v>3209.423198118565</v>
       </c>
       <c r="D151" t="n">
         <v>12.12989859958267</v>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8728.913733705531</v>
+        <v>7692.620601729881</v>
       </c>
       <c r="D152" t="n">
         <v>706.3571727703933</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2397.284255769375</v>
+        <v>2071.674944453129</v>
       </c>
       <c r="D153" t="n">
         <v>17.88864751806336</v>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>13256.53889452747</v>
+        <v>11063.56768848279</v>
       </c>
       <c r="D154" t="n">
         <v>688.6965295223381</v>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8477.983473559007</v>
+        <v>7138.606073654577</v>
       </c>
       <c r="D155" t="n">
         <v>318.8988053431736</v>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12534.83910461833</v>
+        <v>10452.12999674012</v>
       </c>
       <c r="D156" t="n">
         <v>43.18625634153232</v>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3126.219333529355</v>
+        <v>2725.030784841674</v>
       </c>
       <c r="D157" t="n">
         <v>199.5131463316387</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5795.309436188894</v>
+        <v>5041.495326514321</v>
       </c>
       <c r="D158" t="n">
         <v>93.05472650071441</v>

--- a/data/revenue/total_revenue.xlsx
+++ b/data/revenue/total_revenue.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2949.052392379189</v>
+        <v>2719.152851665355</v>
       </c>
       <c r="D3" t="n">
-        <v>174.4971979922003</v>
+        <v>446.4139871328604</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5800.113345474487</v>
+        <v>5403.572576387329</v>
       </c>
       <c r="D4" t="n">
-        <v>417.8402476202729</v>
+        <v>355.920803707906</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7588.92808445109</v>
+        <v>6315.655135444685</v>
       </c>
       <c r="D5" t="n">
-        <v>502.6013837379472</v>
+        <v>808.4974529119136</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5415.22787186546</v>
+        <v>4996.672745713392</v>
       </c>
       <c r="D6" t="n">
-        <v>29.63019839944093</v>
+        <v>117.2318732797031</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3946.42418449205</v>
+        <v>3344.126975940444</v>
       </c>
       <c r="D7" t="n">
-        <v>299.7775784575481</v>
+        <v>478.1738732669378</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8413.163788029546</v>
+        <v>8802.153069760567</v>
       </c>
       <c r="D8" t="n">
-        <v>250.0215626692212</v>
+        <v>865.3111881144096</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7346.720469052751</v>
+        <v>7183.703784029158</v>
       </c>
       <c r="D9" t="n">
-        <v>124.3157138504505</v>
+        <v>268.148747033878</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3024.309872630948</v>
+        <v>2391.134452763644</v>
       </c>
       <c r="D10" t="n">
-        <v>226.4827167309857</v>
+        <v>131.1333293927173</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7894.530971737279</v>
+        <v>7911.64950279722</v>
       </c>
       <c r="D11" t="n">
-        <v>448.1115261533535</v>
+        <v>962.5202422897197</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3132.074372163017</v>
+        <v>2405.303502194893</v>
       </c>
       <c r="D12" t="n">
-        <v>16.12582062038454</v>
+        <v>57.57108417709158</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1848.338683862039</v>
+        <v>1594.406765750133</v>
       </c>
       <c r="D13" t="n">
-        <v>12.0193420874278</v>
+        <v>55.4180190595009</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4642.311464598833</v>
+        <v>4921.968062970417</v>
       </c>
       <c r="D14" t="n">
-        <v>239.3786144687925</v>
+        <v>937.4061277221148</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3251.1160003871</v>
+        <v>2869.209191886416</v>
       </c>
       <c r="D15" t="n">
-        <v>6.997577665245847</v>
+        <v>41.14475323432534</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11833.01318087634</v>
+        <v>10461.64121970945</v>
       </c>
       <c r="D16" t="n">
-        <v>625.0250400330402</v>
+        <v>1172.916464385268</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10042.57240195546</v>
+        <v>6718.960716769538</v>
       </c>
       <c r="D17" t="n">
-        <v>49.73908124633026</v>
+        <v>97.84872249069642</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6101.555389161171</v>
+        <v>5401.728510432532</v>
       </c>
       <c r="D18" t="n">
-        <v>200.6587665495748</v>
+        <v>791.901366752799</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4704.229538652146</v>
+        <v>5453.630241841674</v>
       </c>
       <c r="D19" t="n">
-        <v>23.49188598604879</v>
+        <v>43.0156080543447</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4366.416625145958</v>
+        <v>4779.680869661137</v>
       </c>
       <c r="D20" t="n">
-        <v>345.1563130118697</v>
+        <v>874.4866009380494</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2705.751341588212</v>
+        <v>2250.248582945951</v>
       </c>
       <c r="D21" t="n">
-        <v>121.0678881769322</v>
+        <v>282.5164623193068</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12687.60906477322</v>
+        <v>10468.87221383234</v>
       </c>
       <c r="D22" t="n">
-        <v>60.37397660143609</v>
+        <v>177.5630466763648</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2735.115302335493</v>
+        <v>2816.705646841136</v>
       </c>
       <c r="D23" t="n">
-        <v>89.61032960283262</v>
+        <v>260.4813369386026</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5709.080533781133</v>
+        <v>5343.630897623397</v>
       </c>
       <c r="D24" t="n">
-        <v>292.0936771628947</v>
+        <v>827.091927685422</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2463.396560513575</v>
+        <v>2304.613938926793</v>
       </c>
       <c r="D25" t="n">
-        <v>183.2456538121466</v>
+        <v>597.9145231048529</v>
       </c>
     </row>
     <row r="26">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4679.584111808583</v>
+        <v>4527.748777479059</v>
       </c>
       <c r="D26" t="n">
-        <v>237.8550937089497</v>
+        <v>976.9147778700308</v>
       </c>
     </row>
     <row r="27">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6445.433083830848</v>
+        <v>6230.03490826828</v>
       </c>
       <c r="D27" t="n">
-        <v>45.03671675808876</v>
+        <v>128.3425995214073</v>
       </c>
     </row>
     <row r="28">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5364.520559776351</v>
+        <v>4876.916507858038</v>
       </c>
       <c r="D28" t="n">
-        <v>136.8013828726772</v>
+        <v>830.2800760745025</v>
       </c>
     </row>
     <row r="29">
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1552.914579221611</v>
+        <v>1908.55958900756</v>
       </c>
       <c r="D29" t="n">
-        <v>95.21676614888321</v>
+        <v>293.0356738348615</v>
       </c>
     </row>
     <row r="30">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3950.68062120153</v>
+        <v>3251.511287094399</v>
       </c>
       <c r="D30" t="n">
-        <v>24.52586073332256</v>
+        <v>95.9245068102417</v>
       </c>
     </row>
     <row r="31">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2193.000960166394</v>
+        <v>2586.275610096816</v>
       </c>
       <c r="D31" t="n">
-        <v>201.6766650352661</v>
+        <v>249.5006878530114</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7720.166127903594</v>
+        <v>6424.979485235545</v>
       </c>
       <c r="D32" t="n">
-        <v>368.5960039714619</v>
+        <v>1056.422601431943</v>
       </c>
     </row>
     <row r="33">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7514.707978503045</v>
+        <v>7500.774595126861</v>
       </c>
       <c r="D33" t="n">
-        <v>30.54650652325427</v>
+        <v>124.3275616720384</v>
       </c>
     </row>
     <row r="34">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4765.929086069741</v>
+        <v>5367.087505356258</v>
       </c>
       <c r="D34" t="n">
-        <v>333.1499283625006</v>
+        <v>820.7982786939565</v>
       </c>
     </row>
     <row r="35">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5575.30907362619</v>
+        <v>5887.423873752648</v>
       </c>
       <c r="D35" t="n">
-        <v>26.45068525034418</v>
+        <v>119.9433046852785</v>
       </c>
     </row>
     <row r="36">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4659.749819604406</v>
+        <v>3800.857842173523</v>
       </c>
       <c r="D36" t="n">
-        <v>23.89423015862022</v>
+        <v>87.91769004283385</v>
       </c>
     </row>
     <row r="37">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5350.369149032043</v>
+        <v>4690.403394586029</v>
       </c>
       <c r="D37" t="n">
-        <v>161.1545444747312</v>
+        <v>693.8712247270475</v>
       </c>
     </row>
     <row r="38">
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5255.097909830048</v>
+        <v>4770.279845275386</v>
       </c>
       <c r="D38" t="n">
-        <v>345.4513331122757</v>
+        <v>598.8690247291081</v>
       </c>
     </row>
     <row r="39">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5215.72202817096</v>
+        <v>4816.852479671701</v>
       </c>
       <c r="D39" t="n">
-        <v>36.27984507576312</v>
+        <v>95.36942413834745</v>
       </c>
     </row>
     <row r="40">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6751.934053726348</v>
+        <v>6262.57410828093</v>
       </c>
       <c r="D40" t="n">
-        <v>29.51856301897689</v>
+        <v>102.8902830982589</v>
       </c>
     </row>
     <row r="41">
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9205.295474171677</v>
+        <v>7141.800099369777</v>
       </c>
       <c r="D41" t="n">
-        <v>370.9118295558135</v>
+        <v>784.6552164477578</v>
       </c>
     </row>
     <row r="42">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7973.56215702918</v>
+        <v>6820.696921243074</v>
       </c>
       <c r="D42" t="n">
-        <v>37.43008228093559</v>
+        <v>169.3435854377304</v>
       </c>
     </row>
     <row r="43">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2337.60291745968</v>
+        <v>2159.603097892366</v>
       </c>
       <c r="D43" t="n">
-        <v>220.0841292359559</v>
+        <v>595.853679848755</v>
       </c>
     </row>
     <row r="44">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6282.818971270299</v>
+        <v>6391.517944037369</v>
       </c>
       <c r="D44" t="n">
-        <v>250.4283293983737</v>
+        <v>1292.692474645848</v>
       </c>
     </row>
     <row r="45">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8255.976644060212</v>
+        <v>8174.653686340876</v>
       </c>
       <c r="D45" t="n">
-        <v>650.642417511757</v>
+        <v>1982.320031935015</v>
       </c>
     </row>
     <row r="46">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4109.134108245046</v>
+        <v>4992.309895548067</v>
       </c>
       <c r="D46" t="n">
-        <v>275.4269908630139</v>
+        <v>711.7966622204206</v>
       </c>
     </row>
     <row r="47">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2167.662248717716</v>
+        <v>2126.442248070945</v>
       </c>
       <c r="D47" t="n">
-        <v>14.91463454104603</v>
+        <v>28.65459496890672</v>
       </c>
     </row>
     <row r="48">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4586.937168767676</v>
+        <v>4102.810443518748</v>
       </c>
       <c r="D48" t="n">
-        <v>28.06652824390488</v>
+        <v>691.8147789402832</v>
       </c>
     </row>
     <row r="49">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7684.395771840423</v>
+        <v>7965.92550829306</v>
       </c>
       <c r="D49" t="n">
-        <v>427.9271397892024</v>
+        <v>880.5376000349811</v>
       </c>
     </row>
     <row r="50">
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3350.842368477916</v>
+        <v>2996.519780027993</v>
       </c>
       <c r="D50" t="n">
-        <v>149.384369187634</v>
+        <v>887.461471183777</v>
       </c>
     </row>
     <row r="51">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6884.449193692737</v>
+        <v>6953.285994663555</v>
       </c>
       <c r="D51" t="n">
-        <v>98.13871389405905</v>
+        <v>539.1324394482473</v>
       </c>
     </row>
     <row r="52">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2512.375298977121</v>
+        <v>2294.721360610597</v>
       </c>
       <c r="D52" t="n">
-        <v>15.48235574652709</v>
+        <v>34.76319564248054</v>
       </c>
     </row>
     <row r="53">
@@ -1281,10 +1281,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3742.66831910332</v>
+        <v>3216.54035707405</v>
       </c>
       <c r="D53" t="n">
-        <v>1.410969646388362</v>
+        <v>3.920614815651765</v>
       </c>
     </row>
     <row r="54">
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2126.696460108398</v>
+        <v>2581.277834550436</v>
       </c>
       <c r="D54" t="n">
-        <v>1.450426600853959</v>
+        <v>3.87704923163502</v>
       </c>
     </row>
     <row r="55">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4699.878935096907</v>
+        <v>5700.374074306171</v>
       </c>
       <c r="D55" t="n">
-        <v>389.4047530289492</v>
+        <v>692.6952744604886</v>
       </c>
     </row>
     <row r="56">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5309.776786637908</v>
+        <v>4521.307409766583</v>
       </c>
       <c r="D56" t="n">
-        <v>470.3342693915968</v>
+        <v>985.0897708381978</v>
       </c>
     </row>
     <row r="57">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8892.078810827257</v>
+        <v>7348.53694411346</v>
       </c>
       <c r="D57" t="n">
-        <v>73.92882673213082</v>
+        <v>424.7227317433051</v>
       </c>
     </row>
     <row r="58">
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7589.531309986621</v>
+        <v>6598.244664500195</v>
       </c>
       <c r="D58" t="n">
-        <v>2.845874233570411</v>
+        <v>10.3013651609665</v>
       </c>
     </row>
     <row r="59">
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2236.043556214993</v>
+        <v>1721.873140412852</v>
       </c>
       <c r="D59" t="n">
-        <v>193.5625685865455</v>
+        <v>403.6478611739626</v>
       </c>
     </row>
     <row r="60">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9073.735436392957</v>
+        <v>7588.107914016158</v>
       </c>
       <c r="D60" t="n">
-        <v>86.29290770712979</v>
+        <v>129.1053737257739</v>
       </c>
     </row>
     <row r="61">
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3686.968559799485</v>
+        <v>2901.661798741015</v>
       </c>
       <c r="D61" t="n">
-        <v>198.8998432772309</v>
+        <v>739.4583811812549</v>
       </c>
     </row>
     <row r="62">
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2675.209255231776</v>
+        <v>2421.146612659792</v>
       </c>
       <c r="D62" t="n">
-        <v>81.06896800051938</v>
+        <v>665.749392598786</v>
       </c>
     </row>
     <row r="63">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3532.639946181753</v>
+        <v>3619.268106253701</v>
       </c>
       <c r="D63" t="n">
-        <v>86.74320118095399</v>
+        <v>674.9987100023366</v>
       </c>
     </row>
     <row r="64">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5324.517424049637</v>
+        <v>4913.687231205692</v>
       </c>
       <c r="D64" t="n">
-        <v>210.7524734121741</v>
+        <v>1079.035668005276</v>
       </c>
     </row>
     <row r="65">
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9896.292044302589</v>
+        <v>11150.4518298127</v>
       </c>
       <c r="D65" t="n">
-        <v>330.8612095257656</v>
+        <v>1673.959735032653</v>
       </c>
     </row>
     <row r="66">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5623.887951157905</v>
+        <v>4919.342590385162</v>
       </c>
       <c r="D66" t="n">
-        <v>474.5925161650672</v>
+        <v>1160.288415608733</v>
       </c>
     </row>
     <row r="67">
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3559.506801927612</v>
+        <v>3562.46829885539</v>
       </c>
       <c r="D67" t="n">
-        <v>18.73650546131503</v>
+        <v>80.96999104100153</v>
       </c>
     </row>
     <row r="68">
@@ -1521,10 +1521,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7719.315684361776</v>
+        <v>7857.510921398974</v>
       </c>
       <c r="D68" t="n">
-        <v>744.3517673096264</v>
+        <v>1868.350187786178</v>
       </c>
     </row>
     <row r="69">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6239.229277647079</v>
+        <v>5233.722674991137</v>
       </c>
       <c r="D70" t="n">
-        <v>619.3297381778883</v>
+        <v>654.2588780076424</v>
       </c>
     </row>
     <row r="71">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4016.512106406706</v>
+        <v>4298.177041716619</v>
       </c>
       <c r="D72" t="n">
-        <v>188.5099766866024</v>
+        <v>452.6543971699494</v>
       </c>
     </row>
     <row r="73">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7750.124695010849</v>
+        <v>6957.160484540547</v>
       </c>
       <c r="D73" t="n">
-        <v>25.33388713612805</v>
+        <v>131.8870107357384</v>
       </c>
     </row>
     <row r="74">
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6620.413989945998</v>
+        <v>6415.061133609845</v>
       </c>
       <c r="D74" t="n">
-        <v>7.589026250908342</v>
+        <v>1317.347377944566</v>
       </c>
     </row>
     <row r="75">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6536.480263591866</v>
+        <v>6049.574431540689</v>
       </c>
       <c r="D75" t="n">
-        <v>397.7160549582119</v>
+        <v>1115.127897341143</v>
       </c>
     </row>
     <row r="76">
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>12413.42977253102</v>
+        <v>10439.39912955191</v>
       </c>
       <c r="D76" t="n">
-        <v>329.1297122351858</v>
+        <v>1446.114362352214</v>
       </c>
     </row>
     <row r="77">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7191.120748410512</v>
+        <v>7824.289487330001</v>
       </c>
       <c r="D77" t="n">
-        <v>42.11640631146012</v>
+        <v>112.0557740625874</v>
       </c>
     </row>
     <row r="78">
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3701.29770229731</v>
+        <v>3288.723701092969</v>
       </c>
       <c r="D78" t="n">
-        <v>139.9512751251464</v>
+        <v>410.0217301576167</v>
       </c>
     </row>
     <row r="79">
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5854.493172319348</v>
+        <v>6262.482232999211</v>
       </c>
       <c r="D79" t="n">
-        <v>31.47340769621822</v>
+        <v>140.3579068026594</v>
       </c>
     </row>
     <row r="80">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2674.805767381934</v>
+        <v>2314.513238465841</v>
       </c>
       <c r="D80" t="n">
-        <v>259.8534546847612</v>
+        <v>417.540429463522</v>
       </c>
     </row>
     <row r="81">
@@ -1729,10 +1729,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3962.470123679231</v>
+        <v>3683.635483395928</v>
       </c>
       <c r="D81" t="n">
-        <v>264.2683148563101</v>
+        <v>948.7111985276235</v>
       </c>
     </row>
     <row r="82">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2287.273473015565</v>
+        <v>1627.254333460305</v>
       </c>
       <c r="D82" t="n">
-        <v>169.7271983383672</v>
+        <v>525.4674227813578</v>
       </c>
     </row>
     <row r="83">
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6327.368995020977</v>
+        <v>5852.811396691496</v>
       </c>
       <c r="D83" t="n">
-        <v>446.0164219408927</v>
+        <v>856.905886583843</v>
       </c>
     </row>
     <row r="84">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6802.021058164815</v>
+        <v>10292.60421413624</v>
       </c>
       <c r="D84" t="n">
-        <v>43.81480103643069</v>
+        <v>145.9088916849051</v>
       </c>
     </row>
     <row r="85">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4449.538992292099</v>
+        <v>3979.530044896996</v>
       </c>
       <c r="D85" t="n">
-        <v>29.57149514327306</v>
+        <v>26.38058918102759</v>
       </c>
     </row>
     <row r="86">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2896.953878645133</v>
+        <v>2578.309159904754</v>
       </c>
       <c r="D86" t="n">
-        <v>131.0010472154594</v>
+        <v>408.9304487652343</v>
       </c>
     </row>
     <row r="87">
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2296.448890846865</v>
+        <v>2349.906454837235</v>
       </c>
       <c r="D87" t="n">
-        <v>21.29854468956768</v>
+        <v>448.3963702593965</v>
       </c>
     </row>
     <row r="88">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5116.68571415914</v>
+        <v>4605.095532809247</v>
       </c>
       <c r="D88" t="n">
-        <v>267.9801105604595</v>
+        <v>958.4706330347614</v>
       </c>
     </row>
     <row r="89">
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6441.643394990472</v>
+        <v>7307.761397052529</v>
       </c>
       <c r="D89" t="n">
-        <v>47.70392704127651</v>
+        <v>192.299109708446</v>
       </c>
     </row>
     <row r="90">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7202.840867093673</v>
+        <v>6014.022365251086</v>
       </c>
       <c r="D90" t="n">
-        <v>28.12395281282915</v>
+        <v>96.52118844545778</v>
       </c>
     </row>
     <row r="91">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>10535.51053976017</v>
+        <v>8612.016654517352</v>
       </c>
       <c r="D92" t="n">
-        <v>142.2660087153807</v>
+        <v>127.9378181453223</v>
       </c>
     </row>
     <row r="93">
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5814.951305082947</v>
+        <v>6067.543890125962</v>
       </c>
       <c r="D93" t="n">
-        <v>191.2393914761535</v>
+        <v>784.1157758896053</v>
       </c>
     </row>
     <row r="94">
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2459.106776170082</v>
+        <v>2365.566277373956</v>
       </c>
       <c r="D94" t="n">
-        <v>200.404933690543</v>
+        <v>420.306651325929</v>
       </c>
     </row>
     <row r="95">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5434.800888154427</v>
+        <v>4240.26793521632</v>
       </c>
       <c r="D95" t="n">
-        <v>115.5864369506694</v>
+        <v>616.2666411035466</v>
       </c>
     </row>
     <row r="96">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4966.750783615835</v>
+        <v>4467.85203946178</v>
       </c>
       <c r="D96" t="n">
-        <v>206.5828647111873</v>
+        <v>611.5949308153951</v>
       </c>
     </row>
     <row r="97">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6415.842901554595</v>
+        <v>5900.13728318668</v>
       </c>
       <c r="D97" t="n">
-        <v>198.0643168933534</v>
+        <v>931.880413657228</v>
       </c>
     </row>
     <row r="98">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5791.631827811576</v>
+        <v>5283.102826674794</v>
       </c>
       <c r="D98" t="n">
-        <v>309.6192813174758</v>
+        <v>810.2414097449901</v>
       </c>
     </row>
     <row r="99">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10442.17008062535</v>
+        <v>12663.49647519196</v>
       </c>
       <c r="D99" t="n">
-        <v>49.20703940560105</v>
+        <v>186.0349458891332</v>
       </c>
     </row>
     <row r="100">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5860.745900941041</v>
+        <v>6936.275574368912</v>
       </c>
       <c r="D100" t="n">
-        <v>29.36897338030626</v>
+        <v>101.9142067038089</v>
       </c>
     </row>
     <row r="101">
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9293.778337125452</v>
+        <v>9094.753341552236</v>
       </c>
       <c r="D101" t="n">
-        <v>1273.316826738798</v>
+        <v>1957.524360549172</v>
       </c>
     </row>
     <row r="102">
@@ -2065,10 +2065,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4346.756977952289</v>
+        <v>3606.034854873084</v>
       </c>
       <c r="D102" t="n">
-        <v>207.9652719761402</v>
+        <v>368.1706898749541</v>
       </c>
     </row>
     <row r="103">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>11144.40360819177</v>
+        <v>7873.942287805595</v>
       </c>
       <c r="D104" t="n">
-        <v>568.2633895409709</v>
+        <v>1194.394429225115</v>
       </c>
     </row>
     <row r="105">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4089.514048309734</v>
+        <v>3413.75413571753</v>
       </c>
       <c r="D105" t="n">
-        <v>14.08612769822732</v>
+        <v>79.58413586940699</v>
       </c>
     </row>
     <row r="106">
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4106.589360882787</v>
+        <v>3773.134012285575</v>
       </c>
       <c r="D107" t="n">
-        <v>324.6417945411277</v>
+        <v>432.3627478066138</v>
       </c>
     </row>
     <row r="108">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2292.741450285277</v>
+        <v>2287.8271121684</v>
       </c>
       <c r="D109" t="n">
-        <v>157.6092267918557</v>
+        <v>451.0872996617817</v>
       </c>
     </row>
     <row r="110">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9818.563090121379</v>
+        <v>8980.589073674833</v>
       </c>
       <c r="D111" t="n">
-        <v>67.53219298960636</v>
+        <v>135.0472783582795</v>
       </c>
     </row>
     <row r="112">
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6263.572914404575</v>
+        <v>5250.616397849297</v>
       </c>
       <c r="D112" t="n">
-        <v>395.6319835041886</v>
+        <v>798.2613117608638</v>
       </c>
     </row>
     <row r="113">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4080.983400922562</v>
+        <v>4124.106811105322</v>
       </c>
       <c r="D113" t="n">
-        <v>170.6372165245573</v>
+        <v>708.9543780907876</v>
       </c>
     </row>
     <row r="114">
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3780.075192772123</v>
+        <v>3707.18677032566</v>
       </c>
       <c r="D114" t="n">
-        <v>116.0148334647145</v>
+        <v>608.3481276827536</v>
       </c>
     </row>
     <row r="115">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4207.347196346936</v>
+        <v>4243.455136174544</v>
       </c>
       <c r="D115" t="n">
-        <v>351.19805034364</v>
+        <v>644.3664188041063</v>
       </c>
     </row>
     <row r="116">
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5000.287288422706</v>
+        <v>5586.194147803718</v>
       </c>
       <c r="D116" t="n">
-        <v>246.2748985603153</v>
+        <v>651.7128109824241</v>
       </c>
     </row>
     <row r="117">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7391.651037390224</v>
+        <v>8402.138971839639</v>
       </c>
       <c r="D117" t="n">
-        <v>258.3738469079607</v>
+        <v>568.3331768542856</v>
       </c>
     </row>
     <row r="118">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9482.17422460024</v>
+        <v>8907.470222913686</v>
       </c>
       <c r="D118" t="n">
-        <v>637.6416148131228</v>
+        <v>2228.552454043413</v>
       </c>
     </row>
     <row r="119">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>11541.79680421166</v>
+        <v>8609.854523040915</v>
       </c>
       <c r="D120" t="n">
-        <v>770.4194493248317</v>
+        <v>1847.042922926311</v>
       </c>
     </row>
     <row r="121">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6171.510344472516</v>
+        <v>6260.234507372459</v>
       </c>
       <c r="D121" t="n">
-        <v>137.0535948753159</v>
+        <v>355.8134428053993</v>
       </c>
     </row>
     <row r="122">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4387.799744714472</v>
+        <v>4173.821121596051</v>
       </c>
       <c r="D122" t="n">
-        <v>46.58982021858257</v>
+        <v>141.8239351696119</v>
       </c>
     </row>
     <row r="123">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4528.624075106798</v>
+        <v>3724.645028147045</v>
       </c>
       <c r="D124" t="n">
-        <v>36.86600261833848</v>
+        <v>73.82671535643193</v>
       </c>
     </row>
     <row r="125">
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4155.457984842776</v>
+        <v>3564.908045108718</v>
       </c>
       <c r="D125" t="n">
-        <v>33.72345467832621</v>
+        <v>78.92892010327058</v>
       </c>
     </row>
     <row r="126">
@@ -2443,10 +2443,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3180.329704737818</v>
+        <v>2776.586299286056</v>
       </c>
       <c r="D126" t="n">
-        <v>236.2697805380053</v>
+        <v>595.4208010279671</v>
       </c>
     </row>
     <row r="127">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>11518.54156112379</v>
+        <v>7830.293224167376</v>
       </c>
       <c r="D128" t="n">
-        <v>84.23558658933592</v>
+        <v>139.5877901337164</v>
       </c>
     </row>
     <row r="129">
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8764.520028757395</v>
+        <v>10454.4328390358</v>
       </c>
       <c r="D129" t="n">
-        <v>256.9504228352443</v>
+        <v>1701.917964045277</v>
       </c>
     </row>
     <row r="130">
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>9083.918505090332</v>
+        <v>7504.647749623658</v>
       </c>
       <c r="D131" t="n">
-        <v>626.4980136962738</v>
+        <v>1024.213822037226</v>
       </c>
     </row>
     <row r="132">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3075.665571337091</v>
+        <v>3641.673186014114</v>
       </c>
       <c r="D132" t="n">
-        <v>217.2301819826618</v>
+        <v>341.266990434204</v>
       </c>
     </row>
     <row r="133">
@@ -2555,10 +2555,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2689.12008683307</v>
+        <v>2359.702024238097</v>
       </c>
       <c r="D133" t="n">
-        <v>75.81063902848592</v>
+        <v>351.2960096018055</v>
       </c>
     </row>
     <row r="134">
@@ -2571,10 +2571,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7733.760656116769</v>
+        <v>7411.897675009152</v>
       </c>
       <c r="D134" t="n">
-        <v>395.68407363214</v>
+        <v>1740.460959107157</v>
       </c>
     </row>
     <row r="135">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3327.691781871536</v>
+        <v>2785.819502545752</v>
       </c>
       <c r="D135" t="n">
-        <v>151.1258559534674</v>
+        <v>755.8487874205156</v>
       </c>
     </row>
     <row r="136">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>9717.936055191902</v>
+        <v>11443.59202459157</v>
       </c>
       <c r="D136" t="n">
-        <v>700.2739658408948</v>
+        <v>947.8986337286295</v>
       </c>
     </row>
     <row r="137">
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8599.896479139739</v>
+        <v>7438.181369086748</v>
       </c>
       <c r="D137" t="n">
-        <v>618.2695892269298</v>
+        <v>613.7120685118141</v>
       </c>
     </row>
     <row r="138">
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8322.164054413108</v>
+        <v>8042.70876218831</v>
       </c>
       <c r="D138" t="n">
-        <v>727.4221899687826</v>
+        <v>1181.663973295725</v>
       </c>
     </row>
     <row r="139">
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3453.277440812578</v>
+        <v>3532.94623846226</v>
       </c>
       <c r="D139" t="n">
-        <v>227.8490710672182</v>
+        <v>587.1542701801086</v>
       </c>
     </row>
     <row r="140">
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4880.445194035296</v>
+        <v>4935.538421700012</v>
       </c>
       <c r="D140" t="n">
-        <v>214.5516865327832</v>
+        <v>977.7872000801456</v>
       </c>
     </row>
     <row r="141">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4582.125337773438</v>
+        <v>4363.50776257361</v>
       </c>
       <c r="D141" t="n">
-        <v>382.1689442002507</v>
+        <v>396.6703482793794</v>
       </c>
     </row>
     <row r="142">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6879.365527492064</v>
+        <v>6878.683246228125</v>
       </c>
       <c r="D142" t="n">
-        <v>195.1825224472076</v>
+        <v>1139.58772689062</v>
       </c>
     </row>
     <row r="143">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6194.938159658812</v>
+        <v>6271.541862856763</v>
       </c>
       <c r="D143" t="n">
-        <v>447.736387360651</v>
+        <v>1070.654749010505</v>
       </c>
     </row>
     <row r="144">
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2691.0151117775</v>
+        <v>2903.322627060568</v>
       </c>
       <c r="D144" t="n">
-        <v>277.6602225429959</v>
+        <v>972.545229809762</v>
       </c>
     </row>
     <row r="145">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2802.639633106862</v>
+        <v>3176.671207472329</v>
       </c>
       <c r="D145" t="n">
-        <v>56.18590784795978</v>
+        <v>523.4339690896886</v>
       </c>
     </row>
     <row r="146">
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11505.91459781476</v>
+        <v>8738.824199392784</v>
       </c>
       <c r="D146" t="n">
-        <v>627.7965920568047</v>
+        <v>1287.852321197949</v>
       </c>
     </row>
     <row r="147">
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>10956.38463522901</v>
+        <v>8016.336843235768</v>
       </c>
       <c r="D147" t="n">
-        <v>195.8588804303684</v>
+        <v>860.0566055518979</v>
       </c>
     </row>
     <row r="148">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>8363.401602891807</v>
+        <v>8481.240495152593</v>
       </c>
       <c r="D148" t="n">
-        <v>205.1436156126798</v>
+        <v>1398.500345694289</v>
       </c>
     </row>
     <row r="149">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2605.07988352972</v>
+        <v>2525.481003592582</v>
       </c>
       <c r="D149" t="n">
-        <v>2.102596387487331</v>
+        <v>426.9744450674781</v>
       </c>
     </row>
     <row r="150">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3209.423198118565</v>
+        <v>3133.399708356774</v>
       </c>
       <c r="D151" t="n">
-        <v>12.12989859958267</v>
+        <v>61.07382166939298</v>
       </c>
     </row>
     <row r="152">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7692.620601729881</v>
+        <v>8431.433201473088</v>
       </c>
       <c r="D152" t="n">
-        <v>706.3571727703933</v>
+        <v>1394.003369944882</v>
       </c>
     </row>
     <row r="153">
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2071.674944453129</v>
+        <v>1801.895164552195</v>
       </c>
       <c r="D153" t="n">
-        <v>17.88864751806336</v>
+        <v>28.9151461427075</v>
       </c>
     </row>
     <row r="154">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>11063.56768848279</v>
+        <v>10073.85304744825</v>
       </c>
       <c r="D154" t="n">
-        <v>688.6965295223381</v>
+        <v>1041.55145998582</v>
       </c>
     </row>
     <row r="155">
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7138.606073654577</v>
+        <v>6049.664641231522</v>
       </c>
       <c r="D155" t="n">
-        <v>318.8988053431736</v>
+        <v>1187.974147765681</v>
       </c>
     </row>
     <row r="156">
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>10452.12999674012</v>
+        <v>10156.79363486779</v>
       </c>
       <c r="D156" t="n">
-        <v>43.18625634153232</v>
+        <v>153.8472966873282</v>
       </c>
     </row>
     <row r="157">
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2725.030784841674</v>
+        <v>2683.406535283783</v>
       </c>
       <c r="D157" t="n">
-        <v>199.5131463316387</v>
+        <v>772.6494693763809</v>
       </c>
     </row>
     <row r="158">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5041.495326514321</v>
+        <v>4967.145199444707</v>
       </c>
       <c r="D158" t="n">
-        <v>93.05472650071441</v>
+        <v>673.0416498202069</v>
       </c>
     </row>
   </sheetData>
